--- a/biology/Zoologie/Epeus/Epeus.xlsx
+++ b/biology/Zoologie/Epeus/Epeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epeus est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epeus est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie de l'Est et en Asie du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie de l'Est et en Asie du Sud.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aspect externe des mâles du genre est assez remarquable avec un peigne conique proéminent de soies dressées sur une base semi-circulaire placée sur la moitié postérieure du champ oculaire[2]. 
-Le cymbium, étroit et long, est élargi postérieurement avec l'extrémité rétro-latérale postérieure rétrécie en pointe et s'articule avec l'apophyse tibiale[2]. 
-La coloration des femelles du genre est assez similaire avec deux stries abdominales jaunes sur fond vert[2]. 
-L'épigyne d'Epeus présente une dépression ovale antérieure et des conduits copulatoires à nombreuses spires apparaissant translucides au travers du tégument[2].
-Le genre Epeus est assez similaire au genre Plexippoides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aspect externe des mâles du genre est assez remarquable avec un peigne conique proéminent de soies dressées sur une base semi-circulaire placée sur la moitié postérieure du champ oculaire. 
+Le cymbium, étroit et long, est élargi postérieurement avec l'extrémité rétro-latérale postérieure rétrécie en pointe et s'articule avec l'apophyse tibiale. 
+La coloration des femelles du genre est assez similaire avec deux stries abdominales jaunes sur fond vert. 
+L'épigyne d'Epeus présente une dépression ovale antérieure et des conduits copulatoires à nombreuses spires apparaissant translucides au travers du tégument.
+Le genre Epeus est assez similaire au genre Plexippoides.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 11/05/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 11/05/2024) :
 Epeus alboguttatus (Thorell, 1887)
 Epeus albus Prószyński, 1992
 Epeus bicuspidatus (Song, Gu &amp; Chen, 1988)
@@ -629,10 +647,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evenus[3] Simon, 1877, préoccupé par Evenus Hübner, 1819, a été remplacé par Epeus par Peckham et Peckham en 1886[4]. Il est placé en synonymie avec Viciria par Simon en 1903[5]. Il est relevé de synonymie  par Prószyński en 1984[6].
-Taupoa[7] a été placé en synonymie par Prószyński en 1984[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evenus Simon, 1877, préoccupé par Evenus Hübner, 1819, a été remplacé par Epeus par Peckham et Peckham en 1886. Il est placé en synonymie avec Viciria par Simon en 1903. Il est relevé de synonymie  par Prószyński en 1984.
+Taupoa a été placé en synonymie par Prószyński en 1984.
 </t>
         </is>
       </c>
@@ -661,7 +681,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Peckham &amp; Peckham, 1886 : « Genera of the family Attidae: with a partial synonymy. » Transactions of the Wisconsin Academy of Sciences, Arts, and Letters, vol. 6, p. 255-342 (texte intégral).
 Simon, 1877 : « Études arachnologiques. 5e Mémoire. IX. Arachnides recueillis aux îles Philippines par MM. G. A. Baer et Laglaise. » Annales de la Société Entomologique de France, sér. 5, vol. 7, p. 53-96 (texte intégral).</t>
